--- a/브랜딩_B34(CF).xlsx
+++ b/브랜딩_B34(CF).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-45" yWindow="1185" windowWidth="28110" windowHeight="10455" activeTab="2"/>
@@ -13,7 +13,7 @@
     <sheet name="시청각기록물 목록" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수집기록물 목록'!$A$1:$N$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수집기록물 목록'!$A$1:$R$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$N$63</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="613">
   <si>
     <t>Name</t>
   </si>
@@ -1586,7 +1586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1602,7 +1602,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1674,7 +1674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1764,7 +1764,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1780,7 +1780,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2027,19 +2027,28 @@
   <si>
     <t>1431052-e0001437-2017-B00034</t>
   </si>
+  <si>
+    <t>사업기획</t>
+  </si>
+  <si>
+    <t>용역계약</t>
+  </si>
+  <si>
+    <t>CF영상제작</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;MB&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0\ &quot;Bytes&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;GB&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00%"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00\ &quot;KB&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;MB&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;Bytes&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;GB&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;KB&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2049,7 +2058,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2109,7 +2118,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
@@ -2118,18 +2133,16 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2139,6 +2152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,19 +2184,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2191,40 +2210,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="1"/>
@@ -2232,6 +2269,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2310,6 +2357,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2344,6 +2392,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2519,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2642,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2901,33 +2950,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="83.28515625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" style="34" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="21" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="21" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="73" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="73" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="20" customWidth="1"/>
     <col min="7" max="8" width="19.140625" style="21" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" style="21" customWidth="1"/>
     <col min="10" max="10" width="37.140625" style="21" customWidth="1"/>
     <col min="11" max="12" width="25.5703125" style="21" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" style="21" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="37.140625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:18" s="13" customFormat="1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -2939,51 +2992,63 @@
       <c r="D1" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>583</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="16" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" collapsed="1">
-      <c r="A2" s="25" t="s">
+      <c r="O1" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" collapsed="1">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>193</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -2998,27 +3063,39 @@
       <c r="J2" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" collapsed="1">
-      <c r="A3" s="25" t="s">
+      <c r="O2" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" collapsed="1">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>510</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -3033,27 +3110,39 @@
       <c r="J3" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" collapsed="1">
-      <c r="A4" s="25" t="s">
+      <c r="O3" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" collapsed="1">
+      <c r="A4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>512</v>
       </c>
       <c r="G4" s="21" t="s">
@@ -3068,27 +3157,39 @@
       <c r="J4" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="20" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" collapsed="1">
-      <c r="A5" s="25" t="s">
+      <c r="O4" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" collapsed="1">
+      <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>513</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -3103,27 +3204,39 @@
       <c r="J5" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="20" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" collapsed="1">
-      <c r="A6" s="25" t="s">
+      <c r="O5" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" collapsed="1">
+      <c r="A6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>194</v>
       </c>
       <c r="G6" s="21" t="s">
@@ -3138,27 +3251,39 @@
       <c r="J6" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" collapsed="1">
-      <c r="A7" s="25" t="s">
+      <c r="O6" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" collapsed="1">
+      <c r="A7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>195</v>
       </c>
       <c r="G7" s="21" t="s">
@@ -3170,21 +3295,31 @@
       <c r="J7" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" collapsed="1">
-      <c r="A8" s="25" t="s">
+      <c r="O7" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="R7" s="28"/>
+    </row>
+    <row r="8" spans="1:18" collapsed="1">
+      <c r="A8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>196</v>
       </c>
       <c r="G8" s="21" t="s">
@@ -3196,21 +3331,31 @@
       <c r="J8" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" collapsed="1">
-      <c r="A9" s="25" t="s">
+      <c r="O8" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="R8" s="28"/>
+    </row>
+    <row r="9" spans="1:18" collapsed="1">
+      <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>196</v>
       </c>
       <c r="G9" s="21" t="s">
@@ -3222,21 +3367,31 @@
       <c r="J9" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" collapsed="1">
-      <c r="A10" s="25" t="s">
+      <c r="O9" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="R9" s="28"/>
+    </row>
+    <row r="10" spans="1:18" collapsed="1">
+      <c r="A10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>197</v>
       </c>
       <c r="G10" s="21" t="s">
@@ -3248,21 +3403,31 @@
       <c r="J10" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" collapsed="1">
-      <c r="A11" s="25" t="s">
+      <c r="O10" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="R10" s="28"/>
+    </row>
+    <row r="11" spans="1:18" collapsed="1">
+      <c r="A11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>545</v>
       </c>
       <c r="G11" s="21" t="s">
@@ -3277,21 +3442,31 @@
       <c r="J11" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" collapsed="1">
-      <c r="A12" s="25" t="s">
+      <c r="O11" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" s="28"/>
+    </row>
+    <row r="12" spans="1:18" collapsed="1">
+      <c r="A12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>548</v>
       </c>
       <c r="G12" s="21" t="s">
@@ -3306,21 +3481,31 @@
       <c r="J12" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" collapsed="1">
-      <c r="A13" s="25" t="s">
+      <c r="O12" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R12" s="28"/>
+    </row>
+    <row r="13" spans="1:18" collapsed="1">
+      <c r="A13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>549</v>
       </c>
       <c r="G13" s="21" t="s">
@@ -3335,21 +3520,31 @@
       <c r="J13" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" collapsed="1">
-      <c r="A14" s="25" t="s">
+      <c r="O13" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R13" s="28"/>
+    </row>
+    <row r="14" spans="1:18" collapsed="1">
+      <c r="A14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>550</v>
       </c>
       <c r="G14" s="21" t="s">
@@ -3364,27 +3559,37 @@
       <c r="J14" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="20" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" collapsed="1">
-      <c r="A15" s="25" t="s">
+      <c r="O14" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R14" s="30"/>
+    </row>
+    <row r="15" spans="1:18" collapsed="1">
+      <c r="A15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="20" t="s">
         <v>551</v>
       </c>
       <c r="G15" s="21" t="s">
@@ -3399,27 +3604,37 @@
       <c r="J15" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="20" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" collapsed="1">
-      <c r="A16" s="25" t="s">
+      <c r="O15" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R15" s="30"/>
+    </row>
+    <row r="16" spans="1:18" collapsed="1">
+      <c r="A16" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>553</v>
       </c>
       <c r="G16" s="21" t="s">
@@ -3434,21 +3649,31 @@
       <c r="J16" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" collapsed="1">
-      <c r="A17" s="25" t="s">
+      <c r="O16" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R16" s="28"/>
+    </row>
+    <row r="17" spans="1:18" collapsed="1">
+      <c r="A17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>554</v>
       </c>
       <c r="G17" s="21" t="s">
@@ -3463,27 +3688,37 @@
       <c r="J17" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="20" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" collapsed="1">
-      <c r="A18" s="25" t="s">
+      <c r="O17" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q17" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" collapsed="1">
+      <c r="A18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>555</v>
       </c>
       <c r="G18" s="21" t="s">
@@ -3495,21 +3730,31 @@
       <c r="J18" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" collapsed="1">
-      <c r="A19" s="25" t="s">
+      <c r="O18" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R18" s="28"/>
+    </row>
+    <row r="19" spans="1:18" collapsed="1">
+      <c r="A19" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>556</v>
       </c>
       <c r="G19" s="21" t="s">
@@ -3521,21 +3766,31 @@
       <c r="J19" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" collapsed="1">
-      <c r="A20" s="25" t="s">
+      <c r="O19" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R19" s="28"/>
+    </row>
+    <row r="20" spans="1:18" collapsed="1">
+      <c r="A20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>198</v>
       </c>
       <c r="G20" s="21" t="s">
@@ -3547,21 +3802,31 @@
       <c r="J20" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" collapsed="1">
-      <c r="A21" s="25" t="s">
+      <c r="O20" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R20" s="28"/>
+    </row>
+    <row r="21" spans="1:18" collapsed="1">
+      <c r="A21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>557</v>
       </c>
       <c r="G21" s="21" t="s">
@@ -3576,21 +3841,31 @@
       <c r="J21" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" collapsed="1">
-      <c r="A22" s="25" t="s">
+      <c r="O21" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q21" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R21" s="28"/>
+    </row>
+    <row r="22" spans="1:18" collapsed="1">
+      <c r="A22" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>560</v>
       </c>
       <c r="G22" s="21" t="s">
@@ -3602,21 +3877,31 @@
       <c r="J22" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" collapsed="1">
-      <c r="A23" s="25" t="s">
+      <c r="O22" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R22" s="28"/>
+    </row>
+    <row r="23" spans="1:18" collapsed="1">
+      <c r="A23" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>561</v>
       </c>
       <c r="G23" s="21" t="s">
@@ -3628,21 +3913,31 @@
       <c r="J23" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" collapsed="1">
-      <c r="A24" s="25" t="s">
+      <c r="O23" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q23" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R23" s="28"/>
+    </row>
+    <row r="24" spans="1:18" collapsed="1">
+      <c r="A24" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>562</v>
       </c>
       <c r="G24" s="21" t="s">
@@ -3657,27 +3952,37 @@
       <c r="J24" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="20" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" collapsed="1">
-      <c r="A25" s="25" t="s">
+      <c r="O24" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" collapsed="1">
+      <c r="A25" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>199</v>
       </c>
       <c r="G25" s="21" t="s">
@@ -3689,21 +3994,31 @@
       <c r="J25" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" collapsed="1">
-      <c r="A26" s="25" t="s">
+      <c r="O25" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="R25" s="28"/>
+    </row>
+    <row r="26" spans="1:18" collapsed="1">
+      <c r="A26" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>564</v>
       </c>
       <c r="G26" s="21" t="s">
@@ -3715,21 +4030,31 @@
       <c r="J26" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" collapsed="1">
-      <c r="A27" s="25" t="s">
+      <c r="O26" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="R26" s="28"/>
+    </row>
+    <row r="27" spans="1:18" collapsed="1">
+      <c r="A27" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>565</v>
       </c>
       <c r="G27" s="21" t="s">
@@ -3741,21 +4066,31 @@
       <c r="J27" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" collapsed="1">
-      <c r="A28" s="25" t="s">
+      <c r="O27" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="R27" s="28"/>
+    </row>
+    <row r="28" spans="1:18" collapsed="1">
+      <c r="A28" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="20" t="s">
         <v>566</v>
       </c>
       <c r="G28" s="21" t="s">
@@ -3767,21 +4102,31 @@
       <c r="J28" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" collapsed="1">
-      <c r="A29" s="25" t="s">
+      <c r="O28" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="R28" s="28"/>
+    </row>
+    <row r="29" spans="1:18" collapsed="1">
+      <c r="A29" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="20" t="s">
         <v>200</v>
       </c>
       <c r="G29" s="21" t="s">
@@ -3793,21 +4138,31 @@
       <c r="J29" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" collapsed="1">
-      <c r="A30" s="25" t="s">
+      <c r="O29" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q29" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R29" s="28"/>
+    </row>
+    <row r="30" spans="1:18" collapsed="1">
+      <c r="A30" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>201</v>
       </c>
       <c r="G30" s="21" t="s">
@@ -3819,21 +4174,31 @@
       <c r="J30" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" collapsed="1">
-      <c r="A31" s="25" t="s">
+      <c r="O30" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R30" s="28"/>
+    </row>
+    <row r="31" spans="1:18" collapsed="1">
+      <c r="A31" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>202</v>
       </c>
       <c r="G31" s="21" t="s">
@@ -3848,21 +4213,31 @@
       <c r="J31" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" collapsed="1">
-      <c r="A32" s="25" t="s">
+      <c r="O31" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q31" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R31" s="28"/>
+    </row>
+    <row r="32" spans="1:18" collapsed="1">
+      <c r="A32" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>201</v>
       </c>
       <c r="G32" s="21" t="s">
@@ -3874,21 +4249,31 @@
       <c r="J32" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" collapsed="1">
-      <c r="A33" s="25" t="s">
+      <c r="O32" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R32" s="28"/>
+    </row>
+    <row r="33" spans="1:18" collapsed="1">
+      <c r="A33" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="20" t="s">
         <v>203</v>
       </c>
       <c r="G33" s="21" t="s">
@@ -3903,21 +4288,31 @@
       <c r="J33" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" collapsed="1">
-      <c r="A34" s="25" t="s">
+      <c r="O33" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q33" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R33" s="28"/>
+    </row>
+    <row r="34" spans="1:18" collapsed="1">
+      <c r="A34" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="20" t="s">
         <v>201</v>
       </c>
       <c r="G34" s="21" t="s">
@@ -3929,21 +4324,31 @@
       <c r="J34" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" collapsed="1">
-      <c r="A35" s="25" t="s">
+      <c r="O34" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P34" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q34" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R34" s="28"/>
+    </row>
+    <row r="35" spans="1:18" collapsed="1">
+      <c r="A35" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="20" t="s">
         <v>204</v>
       </c>
       <c r="G35" s="21" t="s">
@@ -3955,21 +4360,31 @@
       <c r="J35" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" collapsed="1">
-      <c r="A36" s="25" t="s">
+      <c r="O35" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q35" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R35" s="28"/>
+    </row>
+    <row r="36" spans="1:18" collapsed="1">
+      <c r="A36" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="20" t="s">
         <v>204</v>
       </c>
       <c r="G36" s="21" t="s">
@@ -3981,21 +4396,31 @@
       <c r="J36" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" collapsed="1">
-      <c r="A37" s="25" t="s">
+      <c r="O36" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q36" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R36" s="28"/>
+    </row>
+    <row r="37" spans="1:18" collapsed="1">
+      <c r="A37" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="20" t="s">
         <v>205</v>
       </c>
       <c r="G37" s="21" t="s">
@@ -4007,21 +4432,31 @@
       <c r="J37" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" collapsed="1">
-      <c r="A38" s="25" t="s">
+      <c r="O37" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P37" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q37" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R37" s="28"/>
+    </row>
+    <row r="38" spans="1:18" collapsed="1">
+      <c r="A38" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="20" t="s">
         <v>206</v>
       </c>
       <c r="G38" s="21" t="s">
@@ -4033,21 +4468,31 @@
       <c r="J38" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" collapsed="1">
-      <c r="A39" s="25" t="s">
+      <c r="O38" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P38" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q38" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="R38" s="28"/>
+    </row>
+    <row r="39" spans="1:18" collapsed="1">
+      <c r="A39" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="20" t="s">
         <v>570</v>
       </c>
       <c r="G39" s="21" t="s">
@@ -4062,27 +4507,39 @@
       <c r="J39" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M39" s="18" t="s">
+      <c r="M39" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" collapsed="1">
-      <c r="A40" s="25" t="s">
+      <c r="O39" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q39" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R39" s="30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" collapsed="1">
+      <c r="A40" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="20" t="s">
         <v>528</v>
       </c>
       <c r="G40" s="21" t="s">
@@ -4097,27 +4554,39 @@
       <c r="J40" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" collapsed="1">
-      <c r="A41" s="25" t="s">
+      <c r="O40" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q40" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R40" s="30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" collapsed="1">
+      <c r="A41" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="20" t="s">
         <v>573</v>
       </c>
       <c r="G41" s="21" t="s">
@@ -4132,27 +4601,39 @@
       <c r="J41" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M41" s="18" t="s">
+      <c r="M41" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="N41" s="19" t="s">
+      <c r="N41" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" collapsed="1">
-      <c r="A42" s="25" t="s">
+      <c r="O41" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P41" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R41" s="30" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" collapsed="1">
+      <c r="A42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="20" t="s">
         <v>271</v>
       </c>
       <c r="G42" s="21" t="s">
@@ -4167,27 +4648,39 @@
       <c r="J42" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M42" s="18" t="s">
+      <c r="M42" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="N42" s="19" t="s">
+      <c r="N42" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" collapsed="1">
-      <c r="A43" s="25" t="s">
+      <c r="O42" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R42" s="30" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" collapsed="1">
+      <c r="A43" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="20" t="s">
         <v>272</v>
       </c>
       <c r="G43" s="21" t="s">
@@ -4202,27 +4695,39 @@
       <c r="J43" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M43" s="18" t="s">
+      <c r="M43" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="N43" s="19" t="s">
+      <c r="N43" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" collapsed="1">
-      <c r="A44" s="25" t="s">
+      <c r="O43" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R43" s="30" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" collapsed="1">
+      <c r="A44" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="20" t="s">
         <v>272</v>
       </c>
       <c r="G44" s="21" t="s">
@@ -4237,27 +4742,39 @@
       <c r="J44" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M44" s="18" t="s">
+      <c r="M44" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="N44" s="19" t="s">
+      <c r="N44" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" collapsed="1">
-      <c r="A45" s="25" t="s">
+      <c r="O44" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P44" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q44" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R44" s="30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" collapsed="1">
+      <c r="A45" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="20" t="s">
         <v>272</v>
       </c>
       <c r="G45" s="21" t="s">
@@ -4272,27 +4789,39 @@
       <c r="J45" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M45" s="18" t="s">
+      <c r="M45" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="N45" s="19" t="s">
+      <c r="N45" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" collapsed="1">
-      <c r="A46" s="25" t="s">
+      <c r="O45" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R45" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" collapsed="1">
+      <c r="A46" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="20" t="s">
         <v>272</v>
       </c>
       <c r="G46" s="21" t="s">
@@ -4307,27 +4836,39 @@
       <c r="J46" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="N46" s="19" t="s">
+      <c r="N46" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" collapsed="1">
-      <c r="A47" s="25" t="s">
+      <c r="O46" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R46" s="30" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" collapsed="1">
+      <c r="A47" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="20" t="s">
         <v>207</v>
       </c>
       <c r="G47" s="21" t="s">
@@ -4342,27 +4883,39 @@
       <c r="J47" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M47" s="18" t="s">
+      <c r="M47" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="N47" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" collapsed="1">
-      <c r="A48" s="25" t="s">
+      <c r="O47" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R47" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" collapsed="1">
+      <c r="A48" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="20" t="s">
         <v>208</v>
       </c>
       <c r="G48" s="21" t="s">
@@ -4377,27 +4930,39 @@
       <c r="J48" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M48" s="18" t="s">
+      <c r="M48" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N48" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" collapsed="1">
-      <c r="A49" s="25" t="s">
+      <c r="O48" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" collapsed="1">
+      <c r="A49" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="20" t="s">
         <v>209</v>
       </c>
       <c r="G49" s="21" t="s">
@@ -4412,27 +4977,39 @@
       <c r="J49" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M49" s="18" t="s">
+      <c r="M49" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="N49" s="19" t="s">
+      <c r="N49" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" collapsed="1">
-      <c r="A50" s="25" t="s">
+      <c r="O49" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P49" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q49" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" collapsed="1">
+      <c r="A50" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="20" t="s">
         <v>210</v>
       </c>
       <c r="G50" s="21" t="s">
@@ -4447,27 +5024,39 @@
       <c r="J50" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M50" s="18" t="s">
+      <c r="M50" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N50" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" collapsed="1">
-      <c r="A51" s="25" t="s">
+      <c r="O50" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P50" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R50" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" collapsed="1">
+      <c r="A51" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="20" t="s">
         <v>211</v>
       </c>
       <c r="G51" s="21" t="s">
@@ -4482,27 +5071,39 @@
       <c r="J51" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M51" s="18" t="s">
+      <c r="M51" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="N51" s="19" t="s">
+      <c r="N51" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" collapsed="1">
-      <c r="A52" s="25" t="s">
+      <c r="O51" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P51" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R51" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" collapsed="1">
+      <c r="A52" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="20" t="s">
         <v>212</v>
       </c>
       <c r="G52" s="21" t="s">
@@ -4517,27 +5118,39 @@
       <c r="J52" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M52" s="18" t="s">
+      <c r="M52" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="N52" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" collapsed="1">
-      <c r="A53" s="25" t="s">
+      <c r="O52" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q52" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R52" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" collapsed="1">
+      <c r="A53" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="20" t="s">
         <v>213</v>
       </c>
       <c r="G53" s="21" t="s">
@@ -4552,27 +5165,39 @@
       <c r="J53" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M53" s="18" t="s">
+      <c r="M53" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="N53" s="19" t="s">
+      <c r="N53" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" collapsed="1">
-      <c r="A54" s="25" t="s">
+      <c r="O53" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P53" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q53" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R53" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" collapsed="1">
+      <c r="A54" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="20" t="s">
         <v>214</v>
       </c>
       <c r="G54" s="21" t="s">
@@ -4587,27 +5212,39 @@
       <c r="J54" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M54" s="18" t="s">
+      <c r="M54" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="N54" s="19" t="s">
+      <c r="N54" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" collapsed="1">
-      <c r="A55" s="25" t="s">
+      <c r="O54" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q54" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R54" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" collapsed="1">
+      <c r="A55" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="20" t="s">
         <v>215</v>
       </c>
       <c r="G55" s="21" t="s">
@@ -4622,27 +5259,39 @@
       <c r="J55" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M55" s="18" t="s">
+      <c r="M55" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="N55" s="19" t="s">
+      <c r="N55" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" collapsed="1">
-      <c r="A56" s="25" t="s">
+      <c r="O55" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P55" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R55" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" collapsed="1">
+      <c r="A56" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="20" t="s">
         <v>216</v>
       </c>
       <c r="G56" s="21" t="s">
@@ -4657,27 +5306,39 @@
       <c r="J56" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M56" s="18" t="s">
+      <c r="M56" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="N56" s="19" t="s">
+      <c r="N56" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" collapsed="1">
-      <c r="A57" s="25" t="s">
+      <c r="O56" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P56" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q56" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R56" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" collapsed="1">
+      <c r="A57" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="20" t="s">
         <v>217</v>
       </c>
       <c r="G57" s="21" t="s">
@@ -4692,27 +5353,39 @@
       <c r="J57" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M57" s="18" t="s">
+      <c r="M57" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="N57" s="19" t="s">
+      <c r="N57" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" collapsed="1">
-      <c r="A58" s="25" t="s">
+      <c r="O57" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P57" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q57" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R57" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" collapsed="1">
+      <c r="A58" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="20" t="s">
         <v>218</v>
       </c>
       <c r="G58" s="21" t="s">
@@ -4727,27 +5400,39 @@
       <c r="J58" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M58" s="18" t="s">
+      <c r="M58" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="N58" s="19" t="s">
+      <c r="N58" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" collapsed="1">
-      <c r="A59" s="25" t="s">
+      <c r="O58" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P58" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q58" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R58" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" collapsed="1">
+      <c r="A59" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="20" t="s">
         <v>219</v>
       </c>
       <c r="G59" s="21" t="s">
@@ -4762,27 +5447,39 @@
       <c r="J59" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M59" s="18" t="s">
+      <c r="M59" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="N59" s="19" t="s">
+      <c r="N59" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" collapsed="1">
-      <c r="A60" s="25" t="s">
+      <c r="O59" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P59" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q59" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R59" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" collapsed="1">
+      <c r="A60" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="20" t="s">
         <v>220</v>
       </c>
       <c r="G60" s="21" t="s">
@@ -4797,27 +5494,39 @@
       <c r="J60" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M60" s="18" t="s">
+      <c r="M60" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="N60" s="19" t="s">
+      <c r="N60" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" collapsed="1">
-      <c r="A61" s="25" t="s">
+      <c r="O60" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P60" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q60" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R60" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" collapsed="1">
+      <c r="A61" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="20" t="s">
         <v>221</v>
       </c>
       <c r="G61" s="21" t="s">
@@ -4832,27 +5541,39 @@
       <c r="J61" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M61" s="18" t="s">
+      <c r="M61" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="N61" s="19" t="s">
+      <c r="N61" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" collapsed="1">
-      <c r="A62" s="25" t="s">
+      <c r="O61" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P61" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q61" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R61" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" collapsed="1">
+      <c r="A62" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G62" s="21" t="s">
@@ -4867,27 +5588,39 @@
       <c r="J62" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M62" s="18" t="s">
+      <c r="M62" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="N62" s="19" t="s">
+      <c r="N62" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" collapsed="1">
-      <c r="A63" s="25" t="s">
+      <c r="O62" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P62" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q62" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R62" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" collapsed="1">
+      <c r="A63" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G63" s="21" t="s">
@@ -4902,27 +5635,39 @@
       <c r="J63" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M63" s="18" t="s">
+      <c r="M63" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="N63" s="19" t="s">
+      <c r="N63" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" collapsed="1">
-      <c r="A64" s="25" t="s">
+      <c r="O63" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P63" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q63" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R63" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" collapsed="1">
+      <c r="A64" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="20" t="s">
         <v>224</v>
       </c>
       <c r="G64" s="21" t="s">
@@ -4937,27 +5682,39 @@
       <c r="J64" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M64" s="18" t="s">
+      <c r="M64" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="N64" s="19" t="s">
+      <c r="N64" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" collapsed="1">
-      <c r="A65" s="25" t="s">
+      <c r="O64" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P64" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q64" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R64" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" collapsed="1">
+      <c r="A65" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="20" t="s">
         <v>225</v>
       </c>
       <c r="G65" s="21" t="s">
@@ -4972,27 +5729,39 @@
       <c r="J65" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M65" s="18" t="s">
+      <c r="M65" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="N65" s="19" t="s">
+      <c r="N65" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" collapsed="1">
-      <c r="A66" s="25" t="s">
+      <c r="O65" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P65" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q65" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R65" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" collapsed="1">
+      <c r="A66" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="20" t="s">
         <v>226</v>
       </c>
       <c r="G66" s="21" t="s">
@@ -5007,27 +5776,39 @@
       <c r="J66" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M66" s="18" t="s">
+      <c r="M66" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="N66" s="19" t="s">
+      <c r="N66" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" collapsed="1">
-      <c r="A67" s="25" t="s">
+      <c r="O66" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P66" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q66" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R66" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" collapsed="1">
+      <c r="A67" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="20" t="s">
         <v>227</v>
       </c>
       <c r="G67" s="21" t="s">
@@ -5042,27 +5823,39 @@
       <c r="J67" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M67" s="18" t="s">
+      <c r="M67" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="N67" s="19" t="s">
+      <c r="N67" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" collapsed="1">
-      <c r="A68" s="25" t="s">
+      <c r="O67" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P67" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q67" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R67" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" collapsed="1">
+      <c r="A68" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="20" t="s">
         <v>228</v>
       </c>
       <c r="G68" s="21" t="s">
@@ -5077,27 +5870,39 @@
       <c r="J68" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M68" s="18" t="s">
+      <c r="M68" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="N68" s="19" t="s">
+      <c r="N68" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" collapsed="1">
-      <c r="A69" s="25" t="s">
+      <c r="O68" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P68" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q68" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R68" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" collapsed="1">
+      <c r="A69" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="20" t="s">
         <v>229</v>
       </c>
       <c r="G69" s="21" t="s">
@@ -5112,27 +5917,39 @@
       <c r="J69" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M69" s="18" t="s">
+      <c r="M69" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="N69" s="19" t="s">
+      <c r="N69" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" collapsed="1">
-      <c r="A70" s="25" t="s">
+      <c r="O69" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P69" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R69" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" collapsed="1">
+      <c r="A70" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="20" t="s">
         <v>230</v>
       </c>
       <c r="G70" s="21" t="s">
@@ -5147,27 +5964,39 @@
       <c r="J70" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M70" s="18" t="s">
+      <c r="M70" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="N70" s="19" t="s">
+      <c r="N70" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" collapsed="1">
-      <c r="A71" s="25" t="s">
+      <c r="O70" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P70" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q70" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R70" s="28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" collapsed="1">
+      <c r="A71" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="20" t="s">
         <v>231</v>
       </c>
       <c r="G71" s="21" t="s">
@@ -5182,27 +6011,39 @@
       <c r="J71" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M71" s="18" t="s">
+      <c r="M71" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="N71" s="19" t="s">
+      <c r="N71" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" collapsed="1">
-      <c r="A72" s="25" t="s">
+      <c r="O71" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P71" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q71" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R71" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" collapsed="1">
+      <c r="A72" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="20" t="s">
         <v>232</v>
       </c>
       <c r="G72" s="21" t="s">
@@ -5217,27 +6058,39 @@
       <c r="J72" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M72" s="18" t="s">
+      <c r="M72" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="N72" s="19" t="s">
+      <c r="N72" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" collapsed="1">
-      <c r="A73" s="25" t="s">
+      <c r="O72" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P72" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q72" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R72" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" collapsed="1">
+      <c r="A73" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="20" t="s">
         <v>233</v>
       </c>
       <c r="G73" s="21" t="s">
@@ -5252,27 +6105,39 @@
       <c r="J73" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M73" s="18" t="s">
+      <c r="M73" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="N73" s="19" t="s">
+      <c r="N73" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" collapsed="1">
-      <c r="A74" s="25" t="s">
+      <c r="O73" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P73" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q73" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R73" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" collapsed="1">
+      <c r="A74" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="20" t="s">
         <v>234</v>
       </c>
       <c r="G74" s="21" t="s">
@@ -5287,27 +6152,39 @@
       <c r="J74" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M74" s="18" t="s">
+      <c r="M74" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="N74" s="19" t="s">
+      <c r="N74" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" collapsed="1">
-      <c r="A75" s="25" t="s">
+      <c r="O74" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P74" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q74" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R74" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" collapsed="1">
+      <c r="A75" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="20" t="s">
         <v>235</v>
       </c>
       <c r="G75" s="21" t="s">
@@ -5322,27 +6199,39 @@
       <c r="J75" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M75" s="18" t="s">
+      <c r="M75" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="N75" s="19" t="s">
+      <c r="N75" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" collapsed="1">
-      <c r="A76" s="25" t="s">
+      <c r="O75" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P75" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q75" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R75" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" collapsed="1">
+      <c r="A76" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="20" t="s">
         <v>236</v>
       </c>
       <c r="G76" s="21" t="s">
@@ -5357,27 +6246,39 @@
       <c r="J76" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M76" s="18" t="s">
+      <c r="M76" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="N76" s="19" t="s">
+      <c r="N76" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" collapsed="1">
-      <c r="A77" s="25" t="s">
+      <c r="O76" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P76" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q76" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R76" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" collapsed="1">
+      <c r="A77" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="20" t="s">
         <v>237</v>
       </c>
       <c r="G77" s="21" t="s">
@@ -5392,27 +6293,39 @@
       <c r="J77" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M77" s="18" t="s">
+      <c r="M77" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="N77" s="19" t="s">
+      <c r="N77" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" collapsed="1">
-      <c r="A78" s="25" t="s">
+      <c r="O77" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P77" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q77" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R77" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" collapsed="1">
+      <c r="A78" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="20" t="s">
         <v>238</v>
       </c>
       <c r="G78" s="21" t="s">
@@ -5427,27 +6340,39 @@
       <c r="J78" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M78" s="18" t="s">
+      <c r="M78" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="N78" s="19" t="s">
+      <c r="N78" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" collapsed="1">
-      <c r="A79" s="25" t="s">
+      <c r="O78" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P78" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q78" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R78" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" collapsed="1">
+      <c r="A79" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="20" t="s">
         <v>239</v>
       </c>
       <c r="G79" s="21" t="s">
@@ -5462,27 +6387,39 @@
       <c r="J79" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M79" s="18" t="s">
+      <c r="M79" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="N79" s="19" t="s">
+      <c r="N79" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" collapsed="1">
-      <c r="A80" s="25" t="s">
+      <c r="O79" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P79" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q79" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R79" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" collapsed="1">
+      <c r="A80" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="20" t="s">
         <v>240</v>
       </c>
       <c r="G80" s="21" t="s">
@@ -5497,27 +6434,39 @@
       <c r="J80" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M80" s="18" t="s">
+      <c r="M80" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="N80" s="19" t="s">
+      <c r="N80" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" collapsed="1">
-      <c r="A81" s="25" t="s">
+      <c r="O80" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P80" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q80" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R80" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" collapsed="1">
+      <c r="A81" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="20" t="s">
         <v>241</v>
       </c>
       <c r="G81" s="21" t="s">
@@ -5532,27 +6481,39 @@
       <c r="J81" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M81" s="18" t="s">
+      <c r="M81" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="N81" s="19" t="s">
+      <c r="N81" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" collapsed="1">
-      <c r="A82" s="25" t="s">
+      <c r="O81" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P81" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q81" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R81" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" collapsed="1">
+      <c r="A82" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="20" t="s">
         <v>242</v>
       </c>
       <c r="G82" s="21" t="s">
@@ -5567,27 +6528,39 @@
       <c r="J82" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M82" s="18" t="s">
+      <c r="M82" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="N82" s="19" t="s">
+      <c r="N82" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" collapsed="1">
-      <c r="A83" s="25" t="s">
+      <c r="O82" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P82" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q82" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R82" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" collapsed="1">
+      <c r="A83" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="20" t="s">
         <v>243</v>
       </c>
       <c r="G83" s="21" t="s">
@@ -5602,27 +6575,39 @@
       <c r="J83" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M83" s="18" t="s">
+      <c r="M83" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="N83" s="19" t="s">
+      <c r="N83" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" collapsed="1">
-      <c r="A84" s="25" t="s">
+      <c r="O83" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P83" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q83" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R83" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" collapsed="1">
+      <c r="A84" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="20" t="s">
         <v>244</v>
       </c>
       <c r="G84" s="21" t="s">
@@ -5637,27 +6622,39 @@
       <c r="J84" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M84" s="18" t="s">
+      <c r="M84" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="N84" s="19" t="s">
+      <c r="N84" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" collapsed="1">
-      <c r="A85" s="25" t="s">
+      <c r="O84" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P84" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q84" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R84" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" collapsed="1">
+      <c r="A85" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="20" t="s">
         <v>245</v>
       </c>
       <c r="G85" s="21" t="s">
@@ -5672,27 +6669,39 @@
       <c r="J85" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M85" s="18" t="s">
+      <c r="M85" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="N85" s="19" t="s">
+      <c r="N85" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" collapsed="1">
-      <c r="A86" s="25" t="s">
+      <c r="O85" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P85" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q85" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R85" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" collapsed="1">
+      <c r="A86" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="20" t="s">
         <v>246</v>
       </c>
       <c r="G86" s="21" t="s">
@@ -5707,27 +6716,39 @@
       <c r="J86" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M86" s="18" t="s">
+      <c r="M86" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="N86" s="19" t="s">
+      <c r="N86" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" collapsed="1">
-      <c r="A87" s="25" t="s">
+      <c r="O86" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P86" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q86" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R86" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" collapsed="1">
+      <c r="A87" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="20" t="s">
         <v>247</v>
       </c>
       <c r="G87" s="21" t="s">
@@ -5742,27 +6763,39 @@
       <c r="J87" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M87" s="18" t="s">
+      <c r="M87" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="N87" s="19" t="s">
+      <c r="N87" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" collapsed="1">
-      <c r="A88" s="25" t="s">
+      <c r="O87" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P87" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q87" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R87" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" collapsed="1">
+      <c r="A88" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="20" t="s">
         <v>248</v>
       </c>
       <c r="G88" s="21" t="s">
@@ -5777,27 +6810,39 @@
       <c r="J88" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M88" s="18" t="s">
+      <c r="M88" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="N88" s="19" t="s">
+      <c r="N88" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" collapsed="1">
-      <c r="A89" s="25" t="s">
+      <c r="O88" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P88" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q88" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R88" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" collapsed="1">
+      <c r="A89" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="20" t="s">
         <v>249</v>
       </c>
       <c r="G89" s="21" t="s">
@@ -5812,27 +6857,37 @@
       <c r="J89" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M89" s="18" t="s">
+      <c r="M89" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="N89" s="19" t="s">
+      <c r="N89" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" collapsed="1">
-      <c r="A90" s="25" t="s">
+      <c r="O89" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P89" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q89" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R89" s="28"/>
+    </row>
+    <row r="90" spans="1:18" collapsed="1">
+      <c r="A90" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="20" t="s">
         <v>250</v>
       </c>
       <c r="G90" s="21" t="s">
@@ -5847,27 +6902,39 @@
       <c r="J90" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M90" s="18" t="s">
+      <c r="M90" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="N90" s="19" t="s">
+      <c r="N90" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" collapsed="1">
-      <c r="A91" s="25" t="s">
+      <c r="O90" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P90" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q90" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R90" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" collapsed="1">
+      <c r="A91" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="20" t="s">
         <v>251</v>
       </c>
       <c r="G91" s="21" t="s">
@@ -5882,32 +6949,37 @@
       <c r="J91" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="M91" s="18" t="s">
+      <c r="M91" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="N91" s="19" t="s">
+      <c r="N91" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="M92" s="18"/>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="M93" s="18"/>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="M94" s="18"/>
+      <c r="O91" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="P91" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q91" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="R91" s="28"/>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="M92" s="19"/>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="M93" s="19"/>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="M94" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N91">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="10"/>
-    <filterColumn colId="11"/>
+  <autoFilter ref="A1:R1">
+    <sortState ref="A2:S91">
+      <sortCondition ref="D1"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
@@ -6096,41 +7168,42 @@
     <hyperlink ref="A89" r:id="rId178"/>
     <hyperlink ref="A90" r:id="rId179"/>
     <hyperlink ref="A91" r:id="rId180"/>
+    <hyperlink ref="Q2:Q6" r:id="rId181" display="00. 미분류"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId181"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId182"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="83.28515625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" style="25" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="21" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="73" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="73" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="20" customWidth="1"/>
     <col min="6" max="10" width="20.140625" style="21" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="21" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="21" customWidth="1"/>
-    <col min="13" max="16" width="15.85546875" style="19" customWidth="1"/>
+    <col min="13" max="16" width="15.85546875" style="20" customWidth="1"/>
     <col min="17" max="17" width="37.140625" style="21" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" style="21" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" style="20" customWidth="1"/>
     <col min="20" max="20" width="16.28515625" style="21" customWidth="1"/>
-    <col min="21" max="21" width="41" style="19" customWidth="1"/>
+    <col min="21" max="21" width="41" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1">
@@ -6143,43 +7216,43 @@
       <c r="C1" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>590</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="17" t="s">
         <v>504</v>
       </c>
       <c r="Q1" s="15" t="s">
@@ -6199,19 +7272,19 @@
       </c>
     </row>
     <row r="2" spans="1:21" collapsed="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F2" s="21" t="s">
@@ -6229,22 +7302,22 @@
       <c r="J2" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>274</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="20" t="s">
         <v>526</v>
       </c>
       <c r="Q2" s="21" t="s">
@@ -6253,30 +7326,30 @@
       <c r="R2" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:21" collapsed="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>539</v>
       </c>
       <c r="F3" s="21" t="s">
@@ -6291,22 +7364,22 @@
       <c r="I3" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>275</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="20" t="s">
         <v>520</v>
       </c>
       <c r="Q3" s="21" t="s">
@@ -6315,30 +7388,30 @@
       <c r="R3" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:21" collapsed="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>539</v>
       </c>
       <c r="F4" s="21" t="s">
@@ -6353,22 +7426,22 @@
       <c r="I4" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>275</v>
       </c>
       <c r="L4" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="20" t="s">
         <v>520</v>
       </c>
       <c r="Q4" s="21" t="s">
@@ -6377,30 +7450,30 @@
       <c r="R4" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:21" collapsed="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>539</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -6415,22 +7488,22 @@
       <c r="I5" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="18" t="s">
         <v>275</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="20" t="s">
         <v>520</v>
       </c>
       <c r="Q5" s="21" t="s">
@@ -6439,30 +7512,30 @@
       <c r="R5" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:21" collapsed="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F6" s="21" t="s">
@@ -6480,22 +7553,22 @@
       <c r="J6" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="18" t="s">
         <v>275</v>
       </c>
       <c r="L6" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="20" t="s">
         <v>526</v>
       </c>
       <c r="Q6" s="21" t="s">
@@ -6504,30 +7577,30 @@
       <c r="R6" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:21" collapsed="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>539</v>
       </c>
       <c r="F7" s="21" t="s">
@@ -6542,22 +7615,22 @@
       <c r="I7" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>281</v>
       </c>
       <c r="L7" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="20" t="s">
         <v>523</v>
       </c>
       <c r="Q7" s="21" t="s">
@@ -6566,28 +7639,28 @@
       <c r="R7" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="S7" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19" t="s">
+      <c r="T7" s="19"/>
+      <c r="U7" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:21" collapsed="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>539</v>
       </c>
       <c r="F8" s="21" t="s">
@@ -6602,22 +7675,22 @@
       <c r="I8" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="18" t="s">
         <v>281</v>
       </c>
       <c r="L8" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="20" t="s">
         <v>520</v>
       </c>
       <c r="Q8" s="21" t="s">
@@ -6626,28 +7699,28 @@
       <c r="R8" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S8" s="22" t="s">
+      <c r="S8" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19" t="s">
+      <c r="T8" s="19"/>
+      <c r="U8" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:21" collapsed="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>539</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -6662,22 +7735,22 @@
       <c r="I9" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="18" t="s">
         <v>281</v>
       </c>
       <c r="L9" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="20" t="s">
         <v>523</v>
       </c>
       <c r="Q9" s="21" t="s">
@@ -6686,28 +7759,28 @@
       <c r="R9" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19" t="s">
+      <c r="T9" s="19"/>
+      <c r="U9" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:21" collapsed="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="20" t="s">
         <v>539</v>
       </c>
       <c r="F10" s="21" t="s">
@@ -6722,22 +7795,22 @@
       <c r="I10" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="18" t="s">
         <v>285</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="20" t="s">
         <v>520</v>
       </c>
       <c r="Q10" s="21" t="s">
@@ -6746,28 +7819,28 @@
       <c r="R10" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S10" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19" t="s">
+      <c r="T10" s="19"/>
+      <c r="U10" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:21" collapsed="1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F11" s="21" t="s">
@@ -6785,22 +7858,22 @@
       <c r="J11" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="18" t="s">
         <v>281</v>
       </c>
       <c r="L11" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="20" t="s">
         <v>526</v>
       </c>
       <c r="Q11" s="21" t="s">
@@ -6809,30 +7882,30 @@
       <c r="R11" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S11" s="22" t="s">
+      <c r="S11" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="U11" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:21" collapsed="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F12" s="21" t="s">
@@ -6850,22 +7923,22 @@
       <c r="J12" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="18" t="s">
         <v>281</v>
       </c>
       <c r="L12" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="20" t="s">
         <v>526</v>
       </c>
       <c r="Q12" s="21" t="s">
@@ -6874,30 +7947,30 @@
       <c r="R12" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:21" collapsed="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F13" s="21" t="s">
@@ -6915,22 +7988,22 @@
       <c r="J13" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="18" t="s">
         <v>281</v>
       </c>
       <c r="L13" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q13" s="21" t="s">
@@ -6939,30 +8012,30 @@
       <c r="R13" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S13" s="22" t="s">
+      <c r="S13" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="T13" s="18" t="s">
+      <c r="T13" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:21" collapsed="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F14" s="21" t="s">
@@ -6980,22 +8053,22 @@
       <c r="J14" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="18" t="s">
         <v>281</v>
       </c>
       <c r="L14" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P14" s="19" t="s">
+      <c r="P14" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q14" s="21" t="s">
@@ -7004,30 +8077,30 @@
       <c r="R14" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S14" s="22" t="s">
+      <c r="S14" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="T14" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="U14" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:21" collapsed="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F15" s="21" t="s">
@@ -7045,22 +8118,22 @@
       <c r="J15" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="18" t="s">
         <v>274</v>
       </c>
       <c r="L15" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q15" s="21" t="s">
@@ -7069,30 +8142,30 @@
       <c r="R15" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="T15" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="U15" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:21" collapsed="1">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F16" s="21" t="s">
@@ -7107,25 +8180,25 @@
       <c r="I16" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="24">
         <v>1.736111111111111E-3</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="18" t="s">
         <v>291</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q16" s="21" t="s">
@@ -7134,30 +8207,30 @@
       <c r="R16" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="S16" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="T16" s="18" t="s">
+      <c r="T16" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="U16" s="19" t="s">
+      <c r="U16" s="20" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:21" collapsed="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F17" s="21" t="s">
@@ -7172,25 +8245,25 @@
       <c r="I17" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="24">
         <v>6.8287037037037025E-4</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="18" t="s">
         <v>291</v>
       </c>
       <c r="L17" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q17" s="21" t="s">
@@ -7199,30 +8272,30 @@
       <c r="R17" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S17" s="22" t="s">
+      <c r="S17" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="T17" s="19" t="s">
         <v>606</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:21" collapsed="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F18" s="21" t="s">
@@ -7237,25 +8310,25 @@
       <c r="I18" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="24">
         <v>2.2569444444444447E-3</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="18" t="s">
         <v>291</v>
       </c>
       <c r="L18" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q18" s="21" t="s">
@@ -7264,30 +8337,30 @@
       <c r="R18" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S18" s="22" t="s">
+      <c r="S18" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="T18" s="18" t="s">
+      <c r="T18" s="19" t="s">
         <v>603</v>
       </c>
-      <c r="U18" s="19" t="s">
+      <c r="U18" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:21" collapsed="1">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F19" s="21" t="s">
@@ -7305,22 +8378,22 @@
       <c r="J19" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q19" s="21" t="s">
@@ -7329,30 +8402,30 @@
       <c r="R19" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S19" s="22" t="s">
+      <c r="S19" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T19" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U19" s="19" t="s">
+      <c r="U19" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:21" collapsed="1">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F20" s="21" t="s">
@@ -7370,22 +8443,22 @@
       <c r="J20" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L20" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P20" s="19" t="s">
+      <c r="P20" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q20" s="21" t="s">
@@ -7394,30 +8467,30 @@
       <c r="R20" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S20" s="22" t="s">
+      <c r="S20" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T20" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U20" s="19" t="s">
+      <c r="U20" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:21" collapsed="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -7435,22 +8508,22 @@
       <c r="J21" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L21" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q21" s="21" t="s">
@@ -7459,30 +8532,30 @@
       <c r="R21" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="S21" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T21" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U21" s="19" t="s">
+      <c r="U21" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:21" collapsed="1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F22" s="21" t="s">
@@ -7500,22 +8573,22 @@
       <c r="J22" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L22" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P22" s="19" t="s">
+      <c r="P22" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q22" s="21" t="s">
@@ -7524,30 +8597,30 @@
       <c r="R22" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S22" s="22" t="s">
+      <c r="S22" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T22" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U22" s="19" t="s">
+      <c r="U22" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:21" collapsed="1">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F23" s="21" t="s">
@@ -7565,22 +8638,22 @@
       <c r="J23" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L23" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P23" s="19" t="s">
+      <c r="P23" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q23" s="21" t="s">
@@ -7589,30 +8662,30 @@
       <c r="R23" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S23" s="22" t="s">
+      <c r="S23" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T23" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U23" s="19" t="s">
+      <c r="U23" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:21" collapsed="1">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F24" s="21" t="s">
@@ -7630,22 +8703,22 @@
       <c r="J24" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L24" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P24" s="19" t="s">
+      <c r="P24" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q24" s="21" t="s">
@@ -7654,30 +8727,30 @@
       <c r="R24" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S24" s="22" t="s">
+      <c r="S24" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T24" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U24" s="19" t="s">
+      <c r="U24" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:21" collapsed="1">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F25" s="21" t="s">
@@ -7695,22 +8768,22 @@
       <c r="J25" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L25" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P25" s="19" t="s">
+      <c r="P25" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q25" s="21" t="s">
@@ -7719,30 +8792,30 @@
       <c r="R25" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S25" s="22" t="s">
+      <c r="S25" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T25" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U25" s="19" t="s">
+      <c r="U25" s="20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:21" collapsed="1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F26" s="21" t="s">
@@ -7760,22 +8833,22 @@
       <c r="J26" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L26" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P26" s="19" t="s">
+      <c r="P26" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q26" s="21" t="s">
@@ -7784,30 +8857,30 @@
       <c r="R26" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S26" s="22" t="s">
+      <c r="S26" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T26" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U26" s="19" t="s">
+      <c r="U26" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:21" collapsed="1">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F27" s="21" t="s">
@@ -7825,22 +8898,22 @@
       <c r="J27" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L27" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P27" s="19" t="s">
+      <c r="P27" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q27" s="21" t="s">
@@ -7849,30 +8922,30 @@
       <c r="R27" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S27" s="22" t="s">
+      <c r="S27" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T27" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U27" s="19" t="s">
+      <c r="U27" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:21" collapsed="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F28" s="21" t="s">
@@ -7890,22 +8963,22 @@
       <c r="J28" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L28" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="O28" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q28" s="21" t="s">
@@ -7914,30 +8987,30 @@
       <c r="R28" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S28" s="22" t="s">
+      <c r="S28" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T28" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U28" s="19" t="s">
+      <c r="U28" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:21" collapsed="1">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F29" s="21" t="s">
@@ -7955,22 +9028,22 @@
       <c r="J29" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L29" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P29" s="19" t="s">
+      <c r="P29" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q29" s="21" t="s">
@@ -7979,30 +9052,30 @@
       <c r="R29" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S29" s="22" t="s">
+      <c r="S29" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T29" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U29" s="19" t="s">
+      <c r="U29" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:21" collapsed="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F30" s="21" t="s">
@@ -8020,22 +9093,22 @@
       <c r="J30" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L30" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P30" s="19" t="s">
+      <c r="P30" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q30" s="21" t="s">
@@ -8044,30 +9117,30 @@
       <c r="R30" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S30" s="22" t="s">
+      <c r="S30" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T30" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U30" s="19" t="s">
+      <c r="U30" s="20" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:21" collapsed="1">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F31" s="21" t="s">
@@ -8085,22 +9158,22 @@
       <c r="J31" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L31" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O31" s="19" t="s">
+      <c r="O31" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P31" s="19" t="s">
+      <c r="P31" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q31" s="21" t="s">
@@ -8109,30 +9182,30 @@
       <c r="R31" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S31" s="22" t="s">
+      <c r="S31" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T31" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U31" s="19" t="s">
+      <c r="U31" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:21" collapsed="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F32" s="21" t="s">
@@ -8150,22 +9223,22 @@
       <c r="J32" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L32" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P32" s="19" t="s">
+      <c r="P32" s="20" t="s">
         <v>534</v>
       </c>
       <c r="Q32" s="21" t="s">
@@ -8174,30 +9247,30 @@
       <c r="R32" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S32" s="22" t="s">
+      <c r="S32" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T32" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U32" s="19" t="s">
+      <c r="U32" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:21" collapsed="1">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F33" s="21" t="s">
@@ -8215,22 +9288,22 @@
       <c r="J33" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L33" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O33" s="19" t="s">
+      <c r="O33" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P33" s="19" t="s">
+      <c r="P33" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q33" s="21" t="s">
@@ -8239,30 +9312,30 @@
       <c r="R33" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S33" s="22" t="s">
+      <c r="S33" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T33" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U33" s="19" t="s">
+      <c r="U33" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:21" collapsed="1">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F34" s="21" t="s">
@@ -8277,25 +9350,25 @@
       <c r="I34" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="24">
         <v>4.6296296296296293E-4</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L34" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O34" s="19" t="s">
+      <c r="O34" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P34" s="19" t="s">
+      <c r="P34" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q34" s="21" t="s">
@@ -8304,30 +9377,30 @@
       <c r="R34" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S34" s="22" t="s">
+      <c r="S34" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T34" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U34" s="19" t="s">
+      <c r="U34" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:21" collapsed="1">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F35" s="21" t="s">
@@ -8342,25 +9415,25 @@
       <c r="I35" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="24">
         <v>4.6296296296296293E-4</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L35" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="O35" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P35" s="19" t="s">
+      <c r="P35" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q35" s="21" t="s">
@@ -8369,30 +9442,30 @@
       <c r="R35" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S35" s="22" t="s">
+      <c r="S35" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T35" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U35" s="19" t="s">
+      <c r="U35" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:21" collapsed="1">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F36" s="21" t="s">
@@ -8410,22 +9483,22 @@
       <c r="J36" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L36" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O36" s="19" t="s">
+      <c r="O36" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P36" s="19" t="s">
+      <c r="P36" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q36" s="21" t="s">
@@ -8434,30 +9507,30 @@
       <c r="R36" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S36" s="22" t="s">
+      <c r="S36" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T36" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U36" s="19" t="s">
+      <c r="U36" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:21" collapsed="1">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F37" s="21" t="s">
@@ -8475,22 +9548,22 @@
       <c r="J37" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L37" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M37" s="19" t="s">
+      <c r="M37" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N37" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O37" s="19" t="s">
+      <c r="O37" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P37" s="19" t="s">
+      <c r="P37" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q37" s="21" t="s">
@@ -8499,30 +9572,30 @@
       <c r="R37" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S37" s="22" t="s">
+      <c r="S37" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T37" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U37" s="19" t="s">
+      <c r="U37" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:21" collapsed="1">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F38" s="21" t="s">
@@ -8540,22 +9613,22 @@
       <c r="J38" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L38" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M38" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O38" s="19" t="s">
+      <c r="O38" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P38" s="19" t="s">
+      <c r="P38" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q38" s="21" t="s">
@@ -8564,30 +9637,30 @@
       <c r="R38" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S38" s="22" t="s">
+      <c r="S38" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T38" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U38" s="19" t="s">
+      <c r="U38" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:21" collapsed="1">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F39" s="21" t="s">
@@ -8605,22 +9678,22 @@
       <c r="J39" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L39" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="M39" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O39" s="19" t="s">
+      <c r="O39" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P39" s="19" t="s">
+      <c r="P39" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q39" s="21" t="s">
@@ -8629,30 +9702,30 @@
       <c r="R39" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S39" s="22" t="s">
+      <c r="S39" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T39" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U39" s="19" t="s">
+      <c r="U39" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:21" collapsed="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F40" s="21" t="s">
@@ -8670,22 +9743,22 @@
       <c r="J40" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L40" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M40" s="19" t="s">
+      <c r="M40" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O40" s="19" t="s">
+      <c r="O40" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P40" s="19" t="s">
+      <c r="P40" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q40" s="21" t="s">
@@ -8694,30 +9767,30 @@
       <c r="R40" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S40" s="22" t="s">
+      <c r="S40" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T40" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U40" s="19" t="s">
+      <c r="U40" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:21" collapsed="1">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F41" s="21" t="s">
@@ -8735,22 +9808,22 @@
       <c r="J41" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M41" s="19" t="s">
+      <c r="M41" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N41" s="19" t="s">
+      <c r="N41" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O41" s="19" t="s">
+      <c r="O41" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P41" s="19" t="s">
+      <c r="P41" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q41" s="21" t="s">
@@ -8759,30 +9832,30 @@
       <c r="R41" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S41" s="22" t="s">
+      <c r="S41" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T41" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U41" s="19" t="s">
+      <c r="U41" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:21" collapsed="1">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F42" s="21" t="s">
@@ -8800,22 +9873,22 @@
       <c r="J42" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L42" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="M42" s="19" t="s">
+      <c r="M42" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N42" s="19" t="s">
+      <c r="N42" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="O42" s="19" t="s">
+      <c r="O42" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P42" s="19" t="s">
+      <c r="P42" s="20" t="s">
         <v>530</v>
       </c>
       <c r="Q42" s="21" t="s">
@@ -8824,30 +9897,30 @@
       <c r="R42" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S42" s="22" t="s">
+      <c r="S42" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T42" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="U42" s="19" t="s">
+      <c r="U42" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:21" collapsed="1">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F43" s="21" t="s">
@@ -8865,22 +9938,22 @@
       <c r="J43" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L43" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M43" s="19" t="s">
+      <c r="M43" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N43" s="19" t="s">
+      <c r="N43" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O43" s="19" t="s">
+      <c r="O43" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P43" s="19" t="s">
+      <c r="P43" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q43" s="21" t="s">
@@ -8889,30 +9962,30 @@
       <c r="R43" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S43" s="22" t="s">
+      <c r="S43" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T43" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U43" s="19" t="s">
+      <c r="U43" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:21" collapsed="1">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F44" s="21" t="s">
@@ -8930,22 +10003,22 @@
       <c r="J44" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K44" s="20" t="s">
+      <c r="K44" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L44" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M44" s="19" t="s">
+      <c r="M44" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N44" s="19" t="s">
+      <c r="N44" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O44" s="19" t="s">
+      <c r="O44" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P44" s="19" t="s">
+      <c r="P44" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q44" s="21" t="s">
@@ -8954,30 +10027,30 @@
       <c r="R44" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S44" s="22" t="s">
+      <c r="S44" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T44" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U44" s="19" t="s">
+      <c r="U44" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:21" collapsed="1">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F45" s="21" t="s">
@@ -8995,22 +10068,22 @@
       <c r="J45" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L45" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M45" s="19" t="s">
+      <c r="M45" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N45" s="19" t="s">
+      <c r="N45" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O45" s="19" t="s">
+      <c r="O45" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P45" s="19" t="s">
+      <c r="P45" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q45" s="21" t="s">
@@ -9019,30 +10092,30 @@
       <c r="R45" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S45" s="22" t="s">
+      <c r="S45" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T45" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U45" s="19" t="s">
+      <c r="U45" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:21" collapsed="1">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F46" s="21" t="s">
@@ -9060,22 +10133,22 @@
       <c r="J46" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L46" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M46" s="19" t="s">
+      <c r="M46" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N46" s="19" t="s">
+      <c r="N46" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O46" s="19" t="s">
+      <c r="O46" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P46" s="19" t="s">
+      <c r="P46" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q46" s="21" t="s">
@@ -9084,30 +10157,30 @@
       <c r="R46" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S46" s="22" t="s">
+      <c r="S46" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T46" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U46" s="19" t="s">
+      <c r="U46" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:21" collapsed="1">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F47" s="21" t="s">
@@ -9125,22 +10198,22 @@
       <c r="J47" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K47" s="20" t="s">
+      <c r="K47" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L47" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M47" s="19" t="s">
+      <c r="M47" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="N47" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O47" s="19" t="s">
+      <c r="O47" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P47" s="19" t="s">
+      <c r="P47" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q47" s="21" t="s">
@@ -9149,30 +10222,30 @@
       <c r="R47" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S47" s="22" t="s">
+      <c r="S47" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T47" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U47" s="19" t="s">
+      <c r="U47" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:21" collapsed="1">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F48" s="21" t="s">
@@ -9190,22 +10263,22 @@
       <c r="J48" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L48" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M48" s="19" t="s">
+      <c r="M48" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N48" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O48" s="19" t="s">
+      <c r="O48" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P48" s="19" t="s">
+      <c r="P48" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q48" s="21" t="s">
@@ -9214,30 +10287,30 @@
       <c r="R48" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S48" s="22" t="s">
+      <c r="S48" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T48" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U48" s="19" t="s">
+      <c r="U48" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:21" collapsed="1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F49" s="21" t="s">
@@ -9255,22 +10328,22 @@
       <c r="J49" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K49" s="20" t="s">
+      <c r="K49" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L49" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M49" s="19" t="s">
+      <c r="M49" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N49" s="19" t="s">
+      <c r="N49" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O49" s="19" t="s">
+      <c r="O49" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P49" s="19" t="s">
+      <c r="P49" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q49" s="21" t="s">
@@ -9279,30 +10352,30 @@
       <c r="R49" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S49" s="22" t="s">
+      <c r="S49" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T49" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U49" s="19" t="s">
+      <c r="U49" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:21" collapsed="1">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F50" s="21" t="s">
@@ -9320,22 +10393,22 @@
       <c r="J50" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L50" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M50" s="19" t="s">
+      <c r="M50" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N50" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O50" s="19" t="s">
+      <c r="O50" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P50" s="19" t="s">
+      <c r="P50" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q50" s="21" t="s">
@@ -9344,30 +10417,30 @@
       <c r="R50" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S50" s="22" t="s">
+      <c r="S50" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T50" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U50" s="19" t="s">
+      <c r="U50" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:21" collapsed="1">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F51" s="21" t="s">
@@ -9385,22 +10458,22 @@
       <c r="J51" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K51" s="20" t="s">
+      <c r="K51" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L51" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M51" s="19" t="s">
+      <c r="M51" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N51" s="19" t="s">
+      <c r="N51" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O51" s="19" t="s">
+      <c r="O51" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P51" s="19" t="s">
+      <c r="P51" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q51" s="21" t="s">
@@ -9409,30 +10482,30 @@
       <c r="R51" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S51" s="22" t="s">
+      <c r="S51" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T51" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U51" s="19" t="s">
+      <c r="U51" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:21" collapsed="1">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F52" s="21" t="s">
@@ -9450,22 +10523,22 @@
       <c r="J52" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K52" s="20" t="s">
+      <c r="K52" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L52" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M52" s="19" t="s">
+      <c r="M52" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="N52" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="O52" s="19" t="s">
+      <c r="O52" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P52" s="19" t="s">
+      <c r="P52" s="20" t="s">
         <v>536</v>
       </c>
       <c r="Q52" s="21" t="s">
@@ -9474,30 +10547,30 @@
       <c r="R52" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S52" s="22" t="s">
+      <c r="S52" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T52" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="U52" s="19" t="s">
+      <c r="U52" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:21" collapsed="1">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F53" s="21" t="s">
@@ -9515,22 +10588,22 @@
       <c r="J53" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K53" s="20" t="s">
+      <c r="K53" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L53" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M53" s="19" t="s">
+      <c r="M53" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N53" s="19" t="s">
+      <c r="N53" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O53" s="19" t="s">
+      <c r="O53" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P53" s="19" t="s">
+      <c r="P53" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q53" s="21" t="s">
@@ -9539,30 +10612,30 @@
       <c r="R53" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S53" s="22" t="s">
+      <c r="S53" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T53" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="U53" s="19" t="s">
+      <c r="U53" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:21" collapsed="1">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F54" s="21" t="s">
@@ -9580,22 +10653,22 @@
       <c r="J54" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K54" s="20" t="s">
+      <c r="K54" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L54" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M54" s="19" t="s">
+      <c r="M54" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N54" s="19" t="s">
+      <c r="N54" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O54" s="19" t="s">
+      <c r="O54" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P54" s="19" t="s">
+      <c r="P54" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q54" s="21" t="s">
@@ -9604,30 +10677,30 @@
       <c r="R54" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S54" s="22" t="s">
+      <c r="S54" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T54" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="U54" s="19" t="s">
+      <c r="U54" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:21" collapsed="1">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F55" s="21" t="s">
@@ -9645,22 +10718,22 @@
       <c r="J55" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K55" s="20" t="s">
+      <c r="K55" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L55" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M55" s="19" t="s">
+      <c r="M55" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N55" s="19" t="s">
+      <c r="N55" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O55" s="19" t="s">
+      <c r="O55" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P55" s="19" t="s">
+      <c r="P55" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q55" s="21" t="s">
@@ -9669,30 +10742,30 @@
       <c r="R55" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S55" s="22" t="s">
+      <c r="S55" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T55" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="U55" s="19" t="s">
+      <c r="U55" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:21" collapsed="1">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F56" s="21" t="s">
@@ -9710,22 +10783,22 @@
       <c r="J56" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K56" s="20" t="s">
+      <c r="K56" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L56" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M56" s="19" t="s">
+      <c r="M56" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N56" s="19" t="s">
+      <c r="N56" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O56" s="19" t="s">
+      <c r="O56" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P56" s="19" t="s">
+      <c r="P56" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q56" s="21" t="s">
@@ -9734,30 +10807,30 @@
       <c r="R56" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S56" s="22" t="s">
+      <c r="S56" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T56" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="U56" s="19" t="s">
+      <c r="U56" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:21" collapsed="1">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F57" s="21" t="s">
@@ -9775,22 +10848,22 @@
       <c r="J57" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="K57" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L57" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M57" s="19" t="s">
+      <c r="M57" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N57" s="19" t="s">
+      <c r="N57" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O57" s="19" t="s">
+      <c r="O57" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P57" s="19" t="s">
+      <c r="P57" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q57" s="21" t="s">
@@ -9799,30 +10872,30 @@
       <c r="R57" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S57" s="22" t="s">
+      <c r="S57" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T57" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="U57" s="19" t="s">
+      <c r="U57" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:21" collapsed="1">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F58" s="21" t="s">
@@ -9840,22 +10913,22 @@
       <c r="J58" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K58" s="20" t="s">
+      <c r="K58" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M58" s="19" t="s">
+      <c r="M58" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N58" s="19" t="s">
+      <c r="N58" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O58" s="19" t="s">
+      <c r="O58" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P58" s="19" t="s">
+      <c r="P58" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q58" s="21" t="s">
@@ -9864,30 +10937,30 @@
       <c r="R58" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S58" s="22" t="s">
+      <c r="S58" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T58" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="U58" s="19" t="s">
+      <c r="U58" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:21" collapsed="1">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F59" s="21" t="s">
@@ -9902,25 +10975,25 @@
       <c r="I59" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="J59" s="23">
+      <c r="J59" s="24">
         <v>4.5138888888888892E-4</v>
       </c>
-      <c r="K59" s="20" t="s">
+      <c r="K59" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L59" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M59" s="19" t="s">
+      <c r="M59" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N59" s="19" t="s">
+      <c r="N59" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O59" s="19" t="s">
+      <c r="O59" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P59" s="19" t="s">
+      <c r="P59" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q59" s="21" t="s">
@@ -9929,30 +11002,30 @@
       <c r="R59" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S59" s="22" t="s">
+      <c r="S59" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T59" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="U59" s="19" t="s">
+      <c r="U59" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:21" collapsed="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F60" s="21" t="s">
@@ -9967,25 +11040,25 @@
       <c r="I60" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="24">
         <v>4.5138888888888892E-4</v>
       </c>
-      <c r="K60" s="20" t="s">
+      <c r="K60" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L60" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M60" s="19" t="s">
+      <c r="M60" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N60" s="19" t="s">
+      <c r="N60" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O60" s="19" t="s">
+      <c r="O60" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P60" s="19" t="s">
+      <c r="P60" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q60" s="21" t="s">
@@ -9994,30 +11067,30 @@
       <c r="R60" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S60" s="22" t="s">
+      <c r="S60" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T60" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="U60" s="19" t="s">
+      <c r="U60" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:21" collapsed="1">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F61" s="21" t="s">
@@ -10035,22 +11108,22 @@
       <c r="J61" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K61" s="20" t="s">
+      <c r="K61" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L61" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="M61" s="19" t="s">
+      <c r="M61" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N61" s="19" t="s">
+      <c r="N61" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="O61" s="19" t="s">
+      <c r="O61" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P61" s="19" t="s">
+      <c r="P61" s="20" t="s">
         <v>526</v>
       </c>
       <c r="Q61" s="21" t="s">
@@ -10059,27 +11132,27 @@
       <c r="R61" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S61" s="22" t="s">
+      <c r="S61" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="U61" s="19" t="s">
+      <c r="U61" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:21" collapsed="1">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F62" s="21" t="s">
@@ -10097,22 +11170,22 @@
       <c r="J62" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K62" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L62" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M62" s="19" t="s">
+      <c r="M62" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N62" s="19" t="s">
+      <c r="N62" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="O62" s="19" t="s">
+      <c r="O62" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P62" s="19" t="s">
+      <c r="P62" s="20" t="s">
         <v>532</v>
       </c>
       <c r="Q62" s="21" t="s">
@@ -10121,30 +11194,30 @@
       <c r="R62" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S62" s="22" t="s">
+      <c r="S62" s="23" t="s">
         <v>190</v>
       </c>
       <c r="T62" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="U62" s="19" t="s">
+      <c r="U62" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:21" collapsed="1">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="20" t="s">
         <v>538</v>
       </c>
       <c r="F63" s="21" t="s">
@@ -10162,22 +11235,22 @@
       <c r="J63" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="K63" s="20" t="s">
+      <c r="K63" s="18" t="s">
         <v>298</v>
       </c>
       <c r="L63" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="M63" s="19" t="s">
+      <c r="M63" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="N63" s="19" t="s">
+      <c r="N63" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="O63" s="19" t="s">
+      <c r="O63" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="P63" s="19" t="s">
+      <c r="P63" s="20" t="s">
         <v>526</v>
       </c>
       <c r="Q63" s="21" t="s">
@@ -10186,24 +11259,15 @@
       <c r="R63" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="S63" s="22" t="s">
+      <c r="S63" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="U63" s="19" t="s">
+      <c r="U63" s="20" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N63">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="10"/>
     <sortState ref="A2:N63">
       <sortCondition ref="B1:B63"/>
     </sortState>

--- a/브랜딩_B34(CF).xlsx
+++ b/브랜딩_B34(CF).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-45" yWindow="1185" windowWidth="28110" windowHeight="10455" activeTab="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="614">
   <si>
     <t>Name</t>
   </si>
@@ -1586,7 +1586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1602,7 +1602,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1674,7 +1674,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1764,7 +1764,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -1780,7 +1780,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2036,17 +2036,21 @@
   <si>
     <t>CF영상제작</t>
   </si>
+  <si>
+    <t>경기천년 CF형 홍보영상 제작</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;MB&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0\ &quot;Bytes&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;GB&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;KB&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00\ &quot;MB&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0\ &quot;Bytes&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;GB&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00%"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00\ &quot;KB&quot;"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -2058,7 +2062,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2188,15 +2192,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2357,7 +2361,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2392,7 +2395,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2568,7 +2570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -2691,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2950,13 +2952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M77" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3070,7 +3073,7 @@
         <v>538</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>508</v>
+        <v>613</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>191</v>
@@ -7176,7 +7179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
